--- a/file/price.xlsx
+++ b/file/price.xlsx
@@ -27,20 +27,94 @@
     <t>single</t>
   </si>
   <si>
-    <t>20001#157;20035#114;20013#47;20003#10;20005#711;20006#713</t>
-  </si>
-  <si>
     <t>20001#155;20035#114;20013#47;20003#10;20005#711;20006#713</t>
   </si>
   <si>
     <t>20001#148;20035#114;20013#47;20003#10;20005#711;20006#713</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20037</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>127;20002#6;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20001#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20004#16;20012#46;20005#19;20006#21;20035#114;20013#47;20003#10;20011#43</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +130,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -84,7 +166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -92,6 +174,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -398,14 +483,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="108.5" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -422,13 +507,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>1286709</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>121646232</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>308785954</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -439,7 +524,7 @@
         <v>114830437</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -450,7 +535,7 @@
         <v>114830437</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/file/price.xlsx
+++ b/file/price.xlsx
@@ -2,21 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$5</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>spuId</t>
   </si>
@@ -27,94 +30,18 @@
     <t>single</t>
   </si>
   <si>
-    <t>20001#155;20035#114;20013#47;20003#10;20005#711;20006#713</t>
+    <t>iPhone 8 Plus大陆国行保修一个月以上A1864（全网通）64GB黑色</t>
   </si>
   <si>
-    <t>20001#148;20035#114;20013#47;20003#10;20005#711;20006#713</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20037</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>127;20002#6;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20001#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20004#16;20012#46;20005#19;20006#21;20035#114;20013#47;20003#10;20011#43</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>20001#4;20037#740;20011#43;20002#6;20004#16;20003#10;20035#114;20012#45;20013#47;20005#19;20006#21;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,9 +51,30 @@
     </font>
     <font>
       <sz val="13.5"/>
+      <color rgb="FF6897BB"/>
+      <name val="Fira Code"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
       <color theme="1"/>
       <name val="Fira Code"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -144,12 +92,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -166,25 +120,43 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -480,66 +452,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="108.5" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="106.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="4"/>
+    <col min="5" max="5" width="17.375" style="4" customWidth="1"/>
+    <col min="6" max="7" width="8.875" style="4"/>
+    <col min="8" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="67.625" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="L1" s="5"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2">
-        <v>5</v>
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="14.25">
+      <c r="A2" s="8">
+        <v>10278</v>
       </c>
-      <c r="B2" s="2">
-        <v>308785954</v>
+      <c r="B2" s="8">
+        <v>321307069</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
+      <c r="C2" s="12" t="s">
+        <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2">
-        <v>1286709</v>
-      </c>
-      <c r="B3" s="2">
-        <v>114830437</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2">
-        <v>1286709</v>
-      </c>
-      <c r="B4" s="2">
-        <v>114830437</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="14.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="14.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="14.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <autoFilter ref="A1:C5">
+    <extLst/>
+  </autoFilter>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -549,13 +572,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
@@ -563,11 +587,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/file/price.xlsx
+++ b/file/price.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$217</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395">
   <si>
     <t>spuId</t>
   </si>
@@ -30,18 +30,1193 @@
     <t>single</t>
   </si>
   <si>
+    <t>20001#2;20037#133;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 6s大陆国行保修一个月以下或过保A1700（全网通）16GB深空灰色</t>
+  </si>
+  <si>
+    <t>20001#3;20037#133;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 6s大陆国行保修一个月以下或过保A1700（全网通）32GB深空灰色</t>
+  </si>
+  <si>
+    <t>20001#4;20037#133;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 6s大陆国行保修一个月以下或过保A1700（全网通）64GB深空灰色</t>
+  </si>
+  <si>
+    <t>20001#5;20037#133;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 6s大陆国行保修一个月以下或过保A1700（全网通）128GB深空灰色</t>
+  </si>
+  <si>
+    <t>20001#2;20037#127;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 6大陆国行保修一个月以下或过保A1586（全网通）16GB黑色</t>
+  </si>
+  <si>
+    <t>20001#3;20037#127;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 6大陆国行保修一个月以下或过保A1586（全网通）32GB黑色</t>
+  </si>
+  <si>
+    <t>20001#4;20037#127;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 6大陆国行保修一个月以下或过保A1586（全网通）64GB黑色</t>
+  </si>
+  <si>
+    <t>20001#5;20037#127;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 6大陆国行保修一个月以下或过保A1586（全网通）128GB黑色</t>
+  </si>
+  <si>
+    <t>20001#2;20037#129;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 6 Plus大陆国行保修一个月以下或过保A1524（全网通）16GB黑色</t>
+  </si>
+  <si>
+    <t>20001#3;20037#129;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 6 Plus大陆国行保修一个月以下或过保A1524（全网通）32GB黑色</t>
+  </si>
+  <si>
+    <t>20001#4;20037#129;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 6 Plus大陆国行保修一个月以下或过保A1524（全网通）64GB黑色</t>
+  </si>
+  <si>
+    <t>20001#5;20037#129;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 6 Plus大陆国行保修一个月以下或过保A1524（全网通）128GB黑色</t>
+  </si>
+  <si>
+    <t>20001#3;20037#139;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 7 Plus大陆国行保修一个月以下或过保A1661（全网通）32GB黑色</t>
+  </si>
+  <si>
+    <t>20001#5;20037#139;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 7 Plus大陆国行保修一个月以下或过保A1661（全网通）128GB黑色</t>
+  </si>
+  <si>
+    <t>20001#125;20037#139;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 7 Plus大陆国行保修一个月以下或过保A1661（全网通）256GB黑色</t>
+  </si>
+  <si>
+    <t>20001#4;20037#741;20011#43;20002#6;20004#16;20003#10;20035#114;20012#45;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone X大陆国行保修一个月以上A1865（全网通）64GB黑色</t>
+  </si>
+  <si>
+    <t>20001#125;20037#741;20011#43;20002#6;20004#16;20003#10;20035#114;20012#45;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone X大陆国行保修一个月以上A1865（全网通）256GB黑色</t>
+  </si>
+  <si>
+    <t>20001#4;20037#741;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone X大陆国行保修一个月以下或过保A1865（全网通）64GB黑色</t>
+  </si>
+  <si>
+    <t>20001#125;20037#741;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone X大陆国行保修一个月以下或过保A1865（全网通）256GB黑色</t>
+  </si>
+  <si>
+    <t>20001#2;20037#136;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 6s Plus大陆国行保修一个月以下或过保A1699（全网通）16GB深空灰色</t>
+  </si>
+  <si>
+    <t>20001#3;20037#136;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 6s Plus大陆国行保修一个月以下或过保A1699（全网通）32GB深空灰色</t>
+  </si>
+  <si>
+    <t>20001#4;20037#136;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 6s Plus大陆国行保修一个月以下或过保A1699（全网通）64GB深空灰色</t>
+  </si>
+  <si>
+    <t>20001#5;20037#136;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 6s Plus大陆国行保修一个月以下或过保A1699（全网通）128GB深空灰色</t>
+  </si>
+  <si>
+    <t>20001#2;20037#121;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 5s大陆国行保修一个月以下或过保A1530（双网通）16GB灰色</t>
+  </si>
+  <si>
+    <t>20001#3;20037#121;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 5s大陆国行保修一个月以下或过保A1530（双网通）32GB灰色</t>
+  </si>
+  <si>
+    <t>20001#4;20037#121;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 5s大陆国行保修一个月以下或过保A1530（双网通）64GB灰色</t>
+  </si>
+  <si>
+    <t>20001#3;20037#137;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 7大陆国行保修一个月以下或过保A1660（全网通）32GB黑色</t>
+  </si>
+  <si>
+    <t>20001#5;20037#137;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 7大陆国行保修一个月以下或过保A1660（全网通）128GB黑色</t>
+  </si>
+  <si>
+    <t>20001#125;20037#137;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 7大陆国行保修一个月以下或过保A1660（全网通）256GB黑色</t>
+  </si>
+  <si>
+    <t>20001#4;20037#740;20011#43;20002#6;20004#16;20003#10;20035#114;20012#45;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
     <t>iPhone 8 Plus大陆国行保修一个月以上A1864（全网通）64GB黑色</t>
   </si>
   <si>
-    <t>20001#4;20037#740;20011#43;20002#6;20004#16;20003#10;20035#114;20012#45;20013#47;20005#19;20006#21;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>20001#125;20037#740;20011#43;20002#6;20004#16;20003#10;20035#114;20012#45;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 8 Plus大陆国行保修一个月以上A1864（全网通）256GB黑色</t>
+  </si>
+  <si>
+    <t>20001#4;20037#740;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 8 Plus大陆国行保修一个月以下或过保A1864（全网通）64GB黑色</t>
+  </si>
+  <si>
+    <t>20001#125;20037#740;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 8 Plus大陆国行保修一个月以下或过保A1864（全网通）256GB黑色</t>
+  </si>
+  <si>
+    <t>20001#157;20035#114;20003#10;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>小米 6N/AN/AN/A6GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>20001#158;20035#114;20003#10;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>小米 6N/AN/AN/A6GB+128GBN/A</t>
+  </si>
+  <si>
+    <t>20001#155;20035#114;20003#10;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>小米 6N/AN/AN/A4GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>20001#4;20037#739;20011#43;20002#6;20004#16;20003#10;20035#114;20012#45;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 8大陆国行保修一个月以上A1863（全网通）64GB黑色</t>
+  </si>
+  <si>
+    <t>20001#125;20037#739;20011#43;20002#6;20004#16;20003#10;20035#114;20012#45;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 8大陆国行保修一个月以上A1863（全网通）256GB黑色</t>
+  </si>
+  <si>
+    <t>20001#4;20037#739;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 8大陆国行保修一个月以下或过保A1863（全网通）64GB黑色</t>
+  </si>
+  <si>
+    <t>20001#125;20037#739;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 8大陆国行保修一个月以下或过保A1863（全网通）256GB黑色</t>
+  </si>
+  <si>
+    <t>20001#3;20002#6;20035#114;20054#720;20003#10;20013#47;20004#14;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>三星 Galaxy S7 edge大陆国行N/AN/A32GB金色</t>
+  </si>
+  <si>
+    <t>20001#4;20002#6;20035#114;20054#720;20003#10;20013#47;20004#14;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>三星 Galaxy S7 edge大陆国行N/AN/A64GB金色</t>
+  </si>
+  <si>
+    <t>20001#5;20002#6;20035#114;20054#720;20003#10;20013#47;20004#14;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>三星 Galaxy S7 edge大陆国行N/AN/A128GB金色</t>
+  </si>
+  <si>
+    <t>20037#344;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>OPPO R9sN/AN/AR9sN/AN/A</t>
+  </si>
+  <si>
+    <t>20037#345;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>OPPO R9sN/AN/AR9skN/AN/A</t>
+  </si>
+  <si>
+    <t>20037#346;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>OPPO R9sN/AN/AR9stN/AN/A</t>
+  </si>
+  <si>
+    <t>20037#347;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>OPPO R9sN/AN/AR9sktN/AN/A</t>
+  </si>
+  <si>
+    <t>20001#2;20037#141;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone SE大陆国行保修一个月以下或过保A1723（全网通）16GB深空灰色</t>
+  </si>
+  <si>
+    <t>20001#3;20037#141;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone SE大陆国行保修一个月以下或过保A1723（全网通）32GB深空灰色</t>
+  </si>
+  <si>
+    <t>20001#4;20037#141;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone SE大陆国行保修一个月以下或过保A1723（全网通）64GB深空灰色</t>
+  </si>
+  <si>
+    <t>20001#5;20037#141;20011#43;20002#6;20004#16;20003#10;20035#114;20012#46;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone SE大陆国行保修一个月以下或过保A1723（全网通）128GB深空灰色</t>
+  </si>
+  <si>
+    <t>20037#457;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>OPPO R9N/AN/AR9mN/AN/A</t>
+  </si>
+  <si>
+    <t>20037#349;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>OPPO R9N/AN/AR9tmN/AN/A</t>
+  </si>
+  <si>
+    <t>20037#350;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>OPPO R9N/AN/AR9kmN/AN/A</t>
+  </si>
+  <si>
+    <t>20037#351;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>OPPO R9N/AN/AR9tN/AN/A</t>
+  </si>
+  <si>
+    <t>20037#601;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>OPPO R9N/AN/AX9009N/AN/A</t>
+  </si>
+  <si>
+    <t>20001#3;20035#114;20003#10;20013#47;20004#16;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>小米 5N/AN/AN/A32GBN/A</t>
+  </si>
+  <si>
+    <t>20001#4;20035#114;20003#10;20013#47;20004#16;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>小米 5N/AN/AN/A64GBN/A</t>
+  </si>
+  <si>
+    <t>20001#5;20035#114;20003#10;20013#47;20004#16;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>小米 5N/AN/AN/A128GBN/A</t>
+  </si>
+  <si>
+    <t>20051#339;20001#4;20035#114;20013#47;20003#10;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>vivo Y85N/AN/AN/A64GBN/A</t>
+  </si>
+  <si>
+    <t>20051#339;20001#3;20035#114;20013#47;20003#10;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>vivo Y85N/AN/AN/A32GBN/A</t>
+  </si>
+  <si>
+    <t>小米 Note3N/AN/AN/A6GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>小米 Note3N/AN/AN/A6GB+128GBN/A</t>
+  </si>
+  <si>
+    <t>小米 Note3N/AN/AN/A4GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>20037#352;20001#158;20004#146;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>OPPO R11N/AN/AR116GB+128GB金色</t>
+  </si>
+  <si>
+    <t>20037#352;20001#155;20004#16;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>OPPO R11N/AN/AR114GB+64GB金色</t>
+  </si>
+  <si>
+    <t>20037#353;20001#158;20004#146;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>OPPO R11N/AN/AR11t6GB+128GB金色</t>
+  </si>
+  <si>
+    <t>20037#353;20001#155;20004#16;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>OPPO R11N/AN/AR11t4GB+64GB金色</t>
+  </si>
+  <si>
+    <t>20001#4;20035#114;20013#47;20013#47;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>红米 5 plusN/AN/AN/A64GBN/A</t>
+  </si>
+  <si>
+    <t>20001#3;20035#114;20013#47;20013#47;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>红米 5 plusN/AN/AN/A32GBN/A</t>
+  </si>
+  <si>
+    <t>20001#453;20035#114;20003#10;20051#343;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>小米 4N/AN/AN/AN/AN/A</t>
+  </si>
+  <si>
+    <t>20001#4;20035#114;20003#10;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>小米 MIX2N/AN/AN/A64GBN/A</t>
+  </si>
+  <si>
+    <t>20001#5;20035#114;20003#10;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>小米 MIX2N/AN/AN/A128GBN/A</t>
+  </si>
+  <si>
+    <t>20001#125;20035#114;20003#10;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>小米 MIX2N/AN/AN/A256GBN/A</t>
+  </si>
+  <si>
+    <t>20035#114;20013#47;20003#10;20005#19;20006#713;20051#339</t>
+  </si>
+  <si>
+    <t>OPPO A57N/AN/AN/AN/AN/A</t>
+  </si>
+  <si>
+    <t>20051#339;20004#16;20035#114;20013#47;20003#10;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>OPPO R15 梦镜版N/AN/AN/AN/A黑色</t>
+  </si>
+  <si>
+    <t>20001#157;20002#6;20035#114;20003#10;20051#339;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>荣耀 9N/AN/AN/A6GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>20001#158;20002#6;20035#114;20003#10;20051#339;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>荣耀 9N/AN/AN/A6GB+128GBN/A</t>
+  </si>
+  <si>
+    <t>20001#155;20002#6;20035#114;20003#10;20051#339;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>荣耀 9N/AN/AN/A4GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>20037#681;20001#158;20004#15;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>OPPO R11sN/AN/AR11s6GB+128GB金色</t>
+  </si>
+  <si>
+    <t>20037#681;20001#155;20004#15;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>OPPO R11sN/AN/AR11s4GB+64GB金色</t>
+  </si>
+  <si>
+    <t>20037#682;20001#158;20004#15;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>OPPO R11sN/AN/AR11st6GB+128GB金色</t>
+  </si>
+  <si>
+    <t>20037#682;20001#155;20004#15;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>OPPO R11sN/AN/AR11st4GB+64GB金色</t>
+  </si>
+  <si>
+    <t>20002#6;20001#4;20035#114;20013#47;20003#10;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>魅蓝 Note6N/AN/AN/A64GBN/A</t>
+  </si>
+  <si>
+    <t>20002#6;20001#3;20035#114;20013#47;20003#10;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>魅蓝 Note6N/AN/AN/A32GBN/A</t>
+  </si>
+  <si>
+    <t>20002#6;20001#2;20035#114;20013#47;20003#10;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>魅蓝 Note6N/AN/AN/A16GBN/A</t>
+  </si>
+  <si>
+    <t>20037#354;20001#4;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>vivo X9N/AN/AX964GBN/A</t>
+  </si>
+  <si>
+    <t>20037#354;20001#5;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>vivo X9N/AN/AX9128GBN/A</t>
+  </si>
+  <si>
+    <t>20037#355;20001#4;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>vivo X9N/AN/AX9i64GBN/A</t>
+  </si>
+  <si>
+    <t>20037#355;20001#5;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>vivo X9N/AN/AX9i128GBN/A</t>
+  </si>
+  <si>
+    <t>20037#356;20001#4;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>vivo X9N/AN/AX9L64GBN/A</t>
+  </si>
+  <si>
+    <t>20037#356;20001#5;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>vivo X9N/AN/AX9L128GBN/A</t>
+  </si>
+  <si>
+    <t>20037#701;20001#4;20003#10;20035#114;20013#47;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>vivo X21N/AN/AX216GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>20037#701;20001#5;20003#10;20035#114;20013#47;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>vivo X21N/AN/AX216GB+128GBN/A</t>
+  </si>
+  <si>
+    <t>20037#702;20001#4;20003#10;20035#114;20013#47;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>vivo X21N/AN/AX21A6GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>20037#702;20001#5;20003#10;20035#114;20013#47;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>vivo X21N/AN/AX21A6GB+128GBN/A</t>
+  </si>
+  <si>
+    <t>20001#148;20002#6;20035#114;20003#10;20051#339;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>荣耀 8大陆国行N/AN/A3GB+32GBN/A</t>
+  </si>
+  <si>
+    <t>20001#154;20002#6;20035#114;20003#10;20051#339;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>荣耀 8大陆国行N/AN/A4GB+32GBN/A</t>
+  </si>
+  <si>
+    <t>荣耀 8大陆国行N/AN/A4GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>20001#330;20035#114;20003#10;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>红米 Note4XN/AN/AN/A16GBN/A</t>
+  </si>
+  <si>
+    <t>20001#148;20035#114;20003#10;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>红米 Note4XN/AN/AN/A32GBN/A</t>
+  </si>
+  <si>
+    <t>红米 Note4XN/AN/AN/A64GBN/A</t>
+  </si>
+  <si>
+    <t>20001#156;20035#114;20003#10;20051#339;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>vivo X20N/AN/AN/A4GB+128GBN/A</t>
+  </si>
+  <si>
+    <t>20001#157;20035#114;20003#10;20051#339;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>vivo X20N/AN/AN/A6GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>20001#155;20035#114;20003#10;20051#339;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>vivo X20N/AN/AN/A4GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>20051#339;20001#5;20004#16;20035#114;20013#47;20003#10;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>vivo Xplay6N/AN/AN/A128GBN/A</t>
+  </si>
+  <si>
+    <t>20051#339;20001#4;20004#16;20035#114;20013#47;20003#10;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>vivo Xplay6N/AN/AN/A64GBN/A</t>
+  </si>
+  <si>
+    <t>20001#157;20035#114;20003#10;20013#47;20004#16;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>小米 MIX2SN/AN/AN/A6GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>20001#158;20035#114;20003#10;20013#47;20004#16;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>小米 MIX2SN/AN/AN/A6GB+128GBN/A</t>
+  </si>
+  <si>
+    <t>20001#488;20035#114;20003#10;20013#47;20004#16;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>小米 MIX2SN/AN/AN/A8GB+256GBN/A</t>
+  </si>
+  <si>
+    <t>20001#147;20035#114;20003#10;20051#339;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>魅蓝 Note3N/AN/AN/A16GBN/A</t>
+  </si>
+  <si>
+    <t>20001#148;20035#114;20003#10;20051#339;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>魅蓝 Note3N/AN/AN/A32GBN/A</t>
+  </si>
+  <si>
+    <t>20001#156;20002#6;20035#114;20003#10;20051#339;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>华为 P10大陆国行N/AN/A128GBN/A</t>
+  </si>
+  <si>
+    <t>华为 P10大陆国行N/AN/A64GBN/A</t>
+  </si>
+  <si>
+    <t>20037#408;20054#720;20002#6;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>三星 Galaxy S8大陆国行N/AG9500N/AN/A</t>
+  </si>
+  <si>
+    <t>20037#409;20054#720;20002#6;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>三星 Galaxy S8大陆国行N/AG9508N/AN/A</t>
+  </si>
+  <si>
+    <t>20001#156;20035#114;20003#10;20051#339;20013#47;20004#146;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>OPPO R15N/AN/AN/A4GB+128GB白色</t>
+  </si>
+  <si>
+    <t>20001#158;20035#114;20003#10;20051#339;20013#47;20004#146;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>OPPO R15N/AN/AN/A6GB+128GB白色</t>
+  </si>
+  <si>
+    <t>20035#114;20003#10;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>OPPO A37N/AN/AN/AN/AN/A</t>
+  </si>
+  <si>
+    <t>20001#2;20037#742;20011#43;20002#6;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 5大陆国行N/AA1429（联通版）16GBN/A</t>
+  </si>
+  <si>
+    <t>20001#3;20037#742;20011#43;20002#6;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 5大陆国行N/AA1429（联通版）32GBN/A</t>
+  </si>
+  <si>
+    <t>20001#4;20037#742;20011#43;20002#6;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>iPhone 5大陆国行N/AA1429（联通版）64GBN/A</t>
+  </si>
+  <si>
+    <t>20037#380;20001#4;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>OPPO R9 PlusN/AN/AR9 Plusm64GBN/A</t>
+  </si>
+  <si>
+    <t>20037#380;20001#5;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>OPPO R9 PlusN/AN/AR9 Plusm128GBN/A</t>
+  </si>
+  <si>
+    <t>20037#381;20001#4;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>OPPO R9 PlusN/AN/AR9 Plust64GBN/A</t>
+  </si>
+  <si>
+    <t>20037#381;20001#5;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>OPPO R9 PlusN/AN/AR9 Plust128GBN/A</t>
+  </si>
+  <si>
+    <t>20037#383;20001#4;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>OPPO R9 PlusN/AN/AR9 Plustm64GBN/A</t>
+  </si>
+  <si>
+    <t>20037#383;20001#5;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>OPPO R9 PlusN/AN/AR9 Plustm128GBN/A</t>
+  </si>
+  <si>
+    <t>锤子 坚果 Pro2N/AN/AN/A6GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>锤子 坚果 Pro2N/AN/AN/A6GB+128GBN/A</t>
+  </si>
+  <si>
+    <t>20001#335;20035#114;20003#10;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>锤子 坚果 Pro2N/AN/AN/A6GB+256GBN/A</t>
+  </si>
+  <si>
+    <t>20001#154;20035#114;20003#10;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>锤子 坚果 Pro2N/AN/AN/A4GB+32GBN/A</t>
+  </si>
+  <si>
+    <t>锤子 坚果 Pro2N/AN/AN/A4GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>20001#2;20035#114;20003#10;20051#339;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>红米 Note3N/AN/AN/A16GBN/A</t>
+  </si>
+  <si>
+    <t>20001#3;20035#114;20003#10;20051#339;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>红米 Note3N/AN/AN/A32GBN/A</t>
+  </si>
+  <si>
+    <t>20001#157;20002#6;20035#114;20003#10;20051#339;20013#47;20004#16;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>华为 P20大陆国行N/AN/A6GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>20001#158;20002#6;20035#114;20003#10;20051#339;20013#47;20004#16;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>华为 P20大陆国行N/AN/A6GB+128GBN/A</t>
+  </si>
+  <si>
+    <t>20001#3;20002#6;20035#114;20003#10;20051#339;20013#47;20004#16;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>华为 P9大陆国行N/AN/A32GB金色</t>
+  </si>
+  <si>
+    <t>20001#4;20002#6;20035#114;20003#10;20051#339;20013#47;20004#16;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>华为 P9大陆国行N/AN/A64GB金色</t>
+  </si>
+  <si>
+    <t>20035#114;20013#47;20003#10;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>vivo X7N/AN/AN/AN/AN/A</t>
+  </si>
+  <si>
+    <t>20001#2;20035#114;20003#10;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>魅蓝 Note5N/AN/AN/A16GBN/A</t>
+  </si>
+  <si>
+    <t>20001#3;20035#114;20003#10;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>魅蓝 Note5N/AN/AN/A32GBN/A</t>
+  </si>
+  <si>
+    <t>魅蓝 Note5N/AN/AN/A64GBN/A</t>
+  </si>
+  <si>
+    <t>20002#6;20001#4;20054#720;20035#114;20013#47;20003#10;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>三星 Galaxy S8+大陆国行N/AN/A64GBN/A</t>
+  </si>
+  <si>
+    <t>20002#6;20001#5;20054#720;20035#114;20013#47;20003#10;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>三星 Galaxy S8+大陆国行N/AN/A128GBN/A</t>
+  </si>
+  <si>
+    <t>20001#158;20035#114;20003#10;20051#339;20013#47;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>vivo X21屏幕指纹版N/AN/AN/AN/AN/A</t>
+  </si>
+  <si>
+    <t>20001#157;20035#114;20003#10;20051#339;20013#47;20004#16;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>华为 nova 2SN/AN/AN/A6GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>20001#158;20035#114;20003#10;20051#339;20013#47;20004#16;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>华为 nova 2SN/AN/AN/A6GB+128GBN/A</t>
+  </si>
+  <si>
+    <t>20001#155;20035#114;20003#10;20051#339;20013#47;20004#16;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>华为 nova 2SN/AN/AN/A4GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>20001#2;20035#114;20003#10;20013#47;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>红米 Note4N/AN/AN/A16GBN/A</t>
+  </si>
+  <si>
+    <t>20001#3;20035#114;20003#10;20013#47;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>红米 Note4N/AN/AN/A32GBN/A</t>
+  </si>
+  <si>
+    <t>20001#4;20035#114;20003#10;20013#47;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>红米 Note4N/AN/AN/A64GBN/A</t>
+  </si>
+  <si>
+    <t>20001#1;20051#343;20002#6;20002#6;20003#10;20035#114;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>iPhone 4sN/AN/AN/A8GBN/A</t>
+  </si>
+  <si>
+    <t>20001#2;20051#343;20002#6;20002#6;20003#10;20035#114;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>iPhone 4sN/AN/AN/A16GBN/A</t>
+  </si>
+  <si>
+    <t>20001#3;20051#343;20002#6;20002#6;20003#10;20035#114;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>iPhone 4sN/AN/AN/A32GBN/A</t>
+  </si>
+  <si>
+    <t>20001#4;20051#343;20002#6;20002#6;20003#10;20035#114;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>iPhone 4sN/AN/AN/A64GBN/A</t>
+  </si>
+  <si>
+    <t>20051#339;20001#157;20035#114;20013#47;20003#10;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>红米 Note 5N/AN/AN/A6GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>20051#339;20001#155;20035#114;20013#47;20003#10;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>红米 Note 5N/AN/AN/A4GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>20051#339;20001#148;20035#114;20013#47;20003#10;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>红米 Note 5N/AN/AN/A3GB+32GBN/A</t>
+  </si>
+  <si>
+    <t>小米 5XN/AN/AN/A32GBN/A</t>
+  </si>
+  <si>
+    <t>小米 5XN/AN/AN/A64GBN/A</t>
+  </si>
+  <si>
+    <t>华为 Mate 9大陆国行N/AN/A32GB黑色</t>
+  </si>
+  <si>
+    <t>华为 Mate 9大陆国行N/AN/A64GB黑色</t>
+  </si>
+  <si>
+    <t>20001#5;20002#6;20035#114;20003#10;20051#339;20013#47;20004#16;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>华为 Mate 9大陆国行N/AN/A128GB黑色</t>
+  </si>
+  <si>
+    <t>20001#3;20035#114;20013#47;20003#10;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>红米 5N/AN/AN/A32GBN/A</t>
+  </si>
+  <si>
+    <t>20001#2;20035#114;20013#47;20003#10;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>红米 5N/AN/AN/A16GBN/A</t>
+  </si>
+  <si>
+    <t>vivo X20 王者荣耀版N/AN/AN/AN/AN/A</t>
+  </si>
+  <si>
+    <t>华为 Mate 8大陆国行N/AN/A128GB金色</t>
+  </si>
+  <si>
+    <t>华为 Mate 8大陆国行N/AN/A32GB金色</t>
+  </si>
+  <si>
+    <t>华为 Mate 8大陆国行N/AN/A64GB金色</t>
+  </si>
+  <si>
+    <t>vivo X9 PlusN/AN/AN/AN/AN/A</t>
+  </si>
+  <si>
+    <t>20001#157;20002#6;20035#114;20054#720;20003#10;20013#47;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>三星 Galaxy S9+大陆国行N/AN/A6GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>20001#158;20002#6;20035#114;20054#720;20003#10;20013#47;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>三星 Galaxy S9+大陆国行N/AN/A6GB+128GBN/A</t>
+  </si>
+  <si>
+    <t>20001#335;20002#6;20035#114;20054#720;20003#10;20013#47;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>三星 Galaxy S9+大陆国行N/AN/A6GB+256GBN/A</t>
+  </si>
+  <si>
+    <t>20001#156;20035#114;20003#10;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>小米 Max 2N/AN/AN/A4GB+128GBN/A</t>
+  </si>
+  <si>
+    <t>小米 Max 2N/AN/AN/A4GB+32GBN/A</t>
+  </si>
+  <si>
+    <t>小米 Max 2N/AN/AN/A4GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>荣耀 畅玩7XN/AN/AN/A4GB+128GBN/A</t>
+  </si>
+  <si>
+    <t>20001#154;20035#114;20003#10;20051#339;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>荣耀 畅玩7XN/AN/AN/A4GB+32GBN/A</t>
+  </si>
+  <si>
+    <t>荣耀 畅玩7XN/AN/AN/A4GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>20035#114;20003#10;20051#339;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>vivo Y51N/AN/AN/AN/AN/A</t>
+  </si>
+  <si>
+    <t>荣耀 V9大陆国行N/AN/A6GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>荣耀 V9大陆国行N/AN/A6GB+128GBN/A</t>
+  </si>
+  <si>
+    <t>荣耀 V9大陆国行N/AN/A4GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>OPPO A59sN/AN/AN/AN/AN/A</t>
+  </si>
+  <si>
+    <t>荣耀 8 青春版大陆国行N/AN/A3GB+32GBN/A</t>
+  </si>
+  <si>
+    <t>荣耀 8 青春版大陆国行N/AN/A4GB+32GBN/A</t>
+  </si>
+  <si>
+    <t>荣耀 8 青春版大陆国行N/AN/A4GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>20001#157;20002#6;20035#114;20003#10;20051#339;20013#47;20004#480;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>华为 Mate10 Pro大陆国行N/AN/A6GB+64GB灰色</t>
+  </si>
+  <si>
+    <t>20001#158;20002#6;20035#114;20003#10;20051#339;20013#47;20004#480;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>华为 Mate10 Pro大陆国行N/AN/A6GB+128GB灰色</t>
+  </si>
+  <si>
+    <t>20035#114;20003#10;20013#47;20005#19;20006#713;20051#339</t>
+  </si>
+  <si>
+    <t>vivo Y67N/AN/AN/AN/AN/A</t>
+  </si>
+  <si>
+    <t>20001#158;20002#6;20035#114;20003#10;20051#339;20013#47;20004#16;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>华为 Mate10大陆国行N/AN/A6GB+128GB黑色</t>
+  </si>
+  <si>
+    <t>20001#154;20002#6;20035#114;20003#10;20051#339;20013#47;20004#16;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>华为 Mate10大陆国行N/AN/A4GB+32GB黑色</t>
+  </si>
+  <si>
+    <t>20001#155;20002#6;20035#114;20003#10;20051#339;20013#47;20004#16;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>华为 Mate10大陆国行N/AN/A4GB+64GB黑色</t>
+  </si>
+  <si>
+    <t>vivo X6N/AN/AN/A4GB+32GBN/A</t>
+  </si>
+  <si>
+    <t>vivo X6N/AN/AN/A4GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>20037#389;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>vivo Y66N/AN/AY66N/AN/A</t>
+  </si>
+  <si>
+    <t>vivo X9sN/AN/AN/AN/AN/A</t>
+  </si>
+  <si>
+    <t>荣耀 畅玩6X大陆国行N/AN/A3GB+32GBN/A</t>
+  </si>
+  <si>
+    <t>荣耀 畅玩6X大陆国行N/AN/A4GB+32GBN/A</t>
+  </si>
+  <si>
+    <t>荣耀 畅玩6X大陆国行N/AN/A4GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>20051#339;20035#114;20004#16;20003#10;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>OPPO R9s PlusN/AN/AN/AN/A黑色</t>
+  </si>
+  <si>
+    <t>小米 5sN/AN/AN/A32GBN/A</t>
+  </si>
+  <si>
+    <t>小米 5sN/AN/AN/A64GBN/A</t>
+  </si>
+  <si>
+    <t>小米 5sN/AN/AN/A128GBN/A</t>
+  </si>
+  <si>
+    <t>vivo X7 PlusN/AN/AN/AN/AN/A</t>
+  </si>
+  <si>
+    <t>20037#370;20004#16;20003#10;20035#114;20013#47;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>OPPO R11 PlusN/AN/AR11 PlusN/A金色</t>
+  </si>
+  <si>
+    <t>20037#503;20001#156;20054#720;20002#6;20003#10;20035#114;20013#47;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>三星 Galaxy S9大陆国行N/AG96004GB+128GBN/A</t>
+  </si>
+  <si>
+    <t>20037#503;20001#155;20054#720;20002#6;20003#10;20035#114;20013#47;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>三星 Galaxy S9大陆国行N/AG96004GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>20037#504;20001#156;20054#720;20002#6;20003#10;20035#114;20013#47;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>三星 Galaxy S9大陆国行N/AG96084GB+128GBN/A</t>
+  </si>
+  <si>
+    <t>20037#504;20001#155;20054#720;20002#6;20003#10;20035#114;20013#47;20005#19;20006#21</t>
+  </si>
+  <si>
+    <t>三星 Galaxy S9大陆国行N/AG96084GB+64GBN/A</t>
+  </si>
+  <si>
+    <t>20035#114;20003#10;20051#343;20005#19;20006#21;</t>
+  </si>
+  <si>
+    <t>小米 3N/AN/AN/AN/AN/A</t>
+  </si>
+  <si>
+    <t>20002#6;20001#164;20004#16;20005#19;20006#21;20035#114;20013#47;20003#10</t>
+  </si>
+  <si>
+    <t>小米 8大陆国行N/AN/A8GB+128GB黑色</t>
+  </si>
+  <si>
+    <t>20002#6;20001#335;20004#16;20005#19;20006#21;20035#114;20013#47;20003#10</t>
+  </si>
+  <si>
+    <t>小米 8大陆国行N/AN/A6GB+256GB黑色</t>
+  </si>
+  <si>
+    <t>20002#6;20001#158;20004#16;20005#19;20006#21;20035#114;20013#47;20003#10</t>
+  </si>
+  <si>
+    <t>小米 8大陆国行N/AN/A6GB+128GB黑色</t>
+  </si>
+  <si>
+    <t>20002#6;20001#157;20004#16;20005#19;20006#21;20035#114;20013#47;20003#10</t>
+  </si>
+  <si>
+    <t>小米 8大陆国行N/AN/A6GB+64GB黑色</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,46 +1228,173 @@
       <sz val="13.5"/>
       <color rgb="FF6897BB"/>
       <name val="Fira Code"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="13.5"/>
       <color theme="1"/>
       <name val="Fira Code"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,8 +1407,200 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -114,13 +1608,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -128,6 +1864,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -141,20 +1880,90 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFFF00"/>
+      <color rgb="00FFFF00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -446,130 +2255,4031 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="C195" sqref="C195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="106.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="4"/>
-    <col min="5" max="5" width="17.375" style="4" customWidth="1"/>
-    <col min="6" max="7" width="8.875" style="4"/>
+    <col min="1" max="1" width="13.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="110.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.88333333333333" style="5"/>
+    <col min="5" max="5" width="17.3333333333333" style="5" customWidth="1"/>
+    <col min="6" max="7" width="8.88333333333333" style="5"/>
     <col min="8" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="67.625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="67.625" style="6" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:16">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="L1" s="5"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-    </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="14.25">
-      <c r="A2" s="8">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:13">
+      <c r="A2" s="9">
+        <v>10282</v>
+      </c>
+      <c r="B2" s="9">
+        <v>320732982</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="M2" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:13">
+      <c r="A3" s="9">
+        <v>10282</v>
+      </c>
+      <c r="B3" s="9">
+        <v>320732982</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="M3" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:13">
+      <c r="A4" s="9">
+        <v>10282</v>
+      </c>
+      <c r="B4" s="9">
+        <v>320732982</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="M4" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:13">
+      <c r="A5" s="9">
+        <v>10282</v>
+      </c>
+      <c r="B5" s="9">
+        <v>320732982</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="M5" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>320944217</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <v>320944217</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9">
+        <v>320944217</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9">
+        <v>320944217</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A10" s="9">
+        <v>10283</v>
+      </c>
+      <c r="B10" s="9">
+        <v>320874987</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A11" s="9">
+        <v>10283</v>
+      </c>
+      <c r="B11" s="9">
+        <v>320874987</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A12" s="9">
+        <v>10283</v>
+      </c>
+      <c r="B12" s="9">
+        <v>320874987</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A13" s="9">
+        <v>10283</v>
+      </c>
+      <c r="B13" s="9">
+        <v>320874987</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:13">
+      <c r="A14" s="9">
+        <v>10284</v>
+      </c>
+      <c r="B14" s="9">
+        <v>320780858</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="M14" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:13">
+      <c r="A15" s="9">
+        <v>10284</v>
+      </c>
+      <c r="B15" s="9">
+        <v>320780858</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="M15" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:13">
+      <c r="A16" s="9">
+        <v>10284</v>
+      </c>
+      <c r="B16" s="9">
+        <v>320780858</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="M16" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A17" s="9">
+        <v>10287</v>
+      </c>
+      <c r="B17" s="9">
+        <v>320333810</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A18" s="9">
+        <v>10287</v>
+      </c>
+      <c r="B18" s="9">
+        <v>320333810</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A19" s="9">
+        <v>10287</v>
+      </c>
+      <c r="B19" s="9">
+        <v>320333810</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A20" s="9">
+        <v>10287</v>
+      </c>
+      <c r="B20" s="9">
+        <v>320333810</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:13">
+      <c r="A21" s="9">
+        <v>10275</v>
+      </c>
+      <c r="B21" s="9">
+        <v>320883936</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="M21" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:13">
+      <c r="A22" s="9">
+        <v>10275</v>
+      </c>
+      <c r="B22" s="9">
+        <v>320883936</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="M22" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:13">
+      <c r="A23" s="9">
+        <v>10275</v>
+      </c>
+      <c r="B23" s="9">
+        <v>320883936</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="M23" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:13">
+      <c r="A24" s="9">
+        <v>10275</v>
+      </c>
+      <c r="B24" s="9">
+        <v>320883936</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="M24" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:13">
+      <c r="A25" s="9">
+        <v>8</v>
+      </c>
+      <c r="B25" s="9">
+        <v>320938560</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="M25" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:13">
+      <c r="A26" s="9">
+        <v>8</v>
+      </c>
+      <c r="B26" s="9">
+        <v>320938560</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="M26" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:13">
+      <c r="A27" s="9">
+        <v>8</v>
+      </c>
+      <c r="B27" s="9">
+        <v>320938560</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="M27" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:13">
+      <c r="A28" s="9">
+        <v>4</v>
+      </c>
+      <c r="B28" s="9">
+        <v>320951552</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="M28" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:13">
+      <c r="A29" s="9">
+        <v>4</v>
+      </c>
+      <c r="B29" s="9">
+        <v>320951552</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="M29" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A30" s="9">
+        <v>4</v>
+      </c>
+      <c r="B30" s="9">
+        <v>320951552</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="M30" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" s="3" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A31" s="11">
         <v>10278</v>
       </c>
-      <c r="B2" s="8">
-        <v>321307069</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="10" t="s">
+      <c r="B31" s="9">
+        <v>320744890</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="M31" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A32" s="13">
+        <v>10278</v>
+      </c>
+      <c r="B32" s="9">
+        <v>320744890</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="M32" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A33" s="13">
+        <v>10278</v>
+      </c>
+      <c r="B33" s="9">
+        <v>320744890</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="M33" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A34" s="13">
+        <v>10278</v>
+      </c>
+      <c r="B34" s="9">
+        <v>320744890</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="M34" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="1:13">
+      <c r="A35" s="9">
+        <v>10214</v>
+      </c>
+      <c r="B35" s="9">
+        <v>321062116</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="M35" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:13">
+      <c r="A36" s="9">
+        <v>10214</v>
+      </c>
+      <c r="B36" s="9">
+        <v>321062116</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="M36" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" spans="1:13">
+      <c r="A37" s="9">
+        <v>10214</v>
+      </c>
+      <c r="B37" s="9">
+        <v>321062116</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="M37" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A38" s="9">
+        <v>10285</v>
+      </c>
+      <c r="B38" s="9">
+        <v>320469132</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A39" s="9">
+        <v>10285</v>
+      </c>
+      <c r="B39" s="9">
+        <v>320469132</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A40" s="9">
+        <v>10285</v>
+      </c>
+      <c r="B40" s="9">
+        <v>320469132</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A41" s="9">
+        <v>10285</v>
+      </c>
+      <c r="B41" s="9">
+        <v>320469132</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A42" s="9">
+        <v>9539</v>
+      </c>
+      <c r="B42" s="9">
+        <v>320836764</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A43" s="9">
+        <v>9539</v>
+      </c>
+      <c r="B43" s="9">
+        <v>320836764</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A44" s="9">
+        <v>9539</v>
+      </c>
+      <c r="B44" s="9">
+        <v>320836764</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" spans="1:13">
+      <c r="A45" s="9">
+        <v>9364</v>
+      </c>
+      <c r="B45" s="9">
+        <v>321063054</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="M45" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" spans="1:13">
+      <c r="A46" s="9">
+        <v>9364</v>
+      </c>
+      <c r="B46" s="9">
+        <v>321063054</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="M46" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A47" s="9">
+        <v>9364</v>
+      </c>
+      <c r="B47" s="9">
+        <v>321063054</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="M47" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A48" s="9">
+        <v>9364</v>
+      </c>
+      <c r="B48" s="9">
+        <v>321063054</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="M48" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" spans="1:13">
+      <c r="A49" s="9">
+        <v>10286</v>
+      </c>
+      <c r="B49" s="9">
+        <v>320902901</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="10"/>
+      <c r="M49" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" spans="1:13">
+      <c r="A50" s="9">
+        <v>10286</v>
+      </c>
+      <c r="B50" s="9">
+        <v>320902901</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="10"/>
+      <c r="M50" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" spans="1:13">
+      <c r="A51" s="9">
+        <v>10286</v>
+      </c>
+      <c r="B51" s="9">
+        <v>320902901</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="10"/>
+      <c r="M51" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" spans="1:13">
+      <c r="A52" s="9">
+        <v>10286</v>
+      </c>
+      <c r="B52" s="9">
+        <v>320902901</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="M52" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" spans="1:13">
+      <c r="A53" s="9">
+        <v>9362</v>
+      </c>
+      <c r="B53" s="9">
+        <v>320848681</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="10"/>
+      <c r="M53" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" spans="1:13">
+      <c r="A54" s="9">
+        <v>9362</v>
+      </c>
+      <c r="B54" s="9">
+        <v>320848681</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="M54" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" spans="1:13">
+      <c r="A55" s="9">
+        <v>9362</v>
+      </c>
+      <c r="B55" s="9">
+        <v>320848681</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="M55" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25" spans="1:13">
+      <c r="A56" s="9">
+        <v>9362</v>
+      </c>
+      <c r="B56" s="9">
+        <v>320848681</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="M56" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" spans="1:13">
+      <c r="A57" s="9">
+        <v>9362</v>
+      </c>
+      <c r="B57" s="9">
+        <v>320848681</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="M57" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" spans="1:13">
+      <c r="A58" s="9">
+        <v>10210</v>
+      </c>
+      <c r="B58" s="9">
+        <v>320349793</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="M58" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" spans="1:13">
+      <c r="A59" s="9">
+        <v>10210</v>
+      </c>
+      <c r="B59" s="9">
+        <v>320349793</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="M59" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" spans="1:13">
+      <c r="A60" s="9">
+        <v>10210</v>
+      </c>
+      <c r="B60" s="9">
+        <v>320349793</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="M60" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A61" s="9">
+        <v>1286925</v>
+      </c>
+      <c r="B61" s="9">
+        <v>320886915</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="M61" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A62" s="9">
+        <v>1286925</v>
+      </c>
+      <c r="B62" s="9">
+        <v>320886915</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="M62" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" spans="1:13">
+      <c r="A63" s="9">
+        <v>10197</v>
+      </c>
+      <c r="B63" s="9">
+        <v>321066067</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="M63" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" spans="1:13">
+      <c r="A64" s="9">
+        <v>10197</v>
+      </c>
+      <c r="B64" s="9">
+        <v>321066067</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="M64" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25" spans="1:13">
+      <c r="A65" s="9">
+        <v>10197</v>
+      </c>
+      <c r="B65" s="9">
+        <v>321066067</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="M65" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25" spans="1:13">
+      <c r="A66" s="9">
+        <v>9335</v>
+      </c>
+      <c r="B66" s="9">
+        <v>320317945</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="M66" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25" spans="1:13">
+      <c r="A67" s="9">
+        <v>9335</v>
+      </c>
+      <c r="B67" s="9">
+        <v>320317945</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="M67" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25" spans="1:13">
+      <c r="A68" s="9">
+        <v>9335</v>
+      </c>
+      <c r="B68" s="9">
+        <v>320317945</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="M68" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25" spans="1:13">
+      <c r="A69" s="9">
+        <v>9335</v>
+      </c>
+      <c r="B69" s="9">
+        <v>320317945</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="M69" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A70" s="9">
+        <v>1286707</v>
+      </c>
+      <c r="B70" s="9">
+        <v>320840722</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="M70" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A71" s="9">
+        <v>1286707</v>
+      </c>
+      <c r="B71" s="9">
+        <v>320840722</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="M71" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25" spans="1:13">
+      <c r="A72" s="9">
+        <v>10206</v>
+      </c>
+      <c r="B72" s="9">
+        <v>320907852</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="M72" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25" spans="1:13">
+      <c r="A73" s="9">
+        <v>10196</v>
+      </c>
+      <c r="B73" s="9">
+        <v>320964131</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="M73" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25" spans="1:13">
+      <c r="A74" s="9">
+        <v>10196</v>
+      </c>
+      <c r="B74" s="9">
+        <v>320964131</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="M74" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25" spans="1:13">
+      <c r="A75" s="9">
+        <v>10196</v>
+      </c>
+      <c r="B75" s="9">
+        <v>320964131</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="M75" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25" spans="1:13">
+      <c r="A76" s="9">
+        <v>9322</v>
+      </c>
+      <c r="B76" s="9">
+        <v>320883944</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="M76" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A77" s="9">
+        <v>1286791</v>
+      </c>
+      <c r="B77" s="9">
+        <v>320301943</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="M77" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25" spans="1:13">
+      <c r="A78" s="9">
+        <v>10032</v>
+      </c>
+      <c r="B78" s="9">
+        <v>320907870</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="M78" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25" spans="1:13">
+      <c r="A79" s="9">
+        <v>10032</v>
+      </c>
+      <c r="B79" s="9">
+        <v>320907870</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="M79" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25" spans="1:13">
+      <c r="A80" s="9">
+        <v>10032</v>
+      </c>
+      <c r="B80" s="9">
+        <v>320907870</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="M80" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25" spans="1:13">
+      <c r="A81" s="9">
+        <v>9337</v>
+      </c>
+      <c r="B81" s="9">
+        <v>320947544</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="M81" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25" spans="1:13">
+      <c r="A82" s="9">
+        <v>9337</v>
+      </c>
+      <c r="B82" s="9">
+        <v>320947544</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="M82" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25" spans="1:13">
+      <c r="A83" s="9">
+        <v>9337</v>
+      </c>
+      <c r="B83" s="9">
+        <v>320947544</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="M83" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25" spans="1:13">
+      <c r="A84" s="9">
+        <v>9337</v>
+      </c>
+      <c r="B84" s="9">
+        <v>320947544</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="M84" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A85" s="9">
+        <v>9047</v>
+      </c>
+      <c r="B85" s="9">
+        <v>320980105</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="M85" s="22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A86" s="9">
+        <v>9047</v>
+      </c>
+      <c r="B86" s="9">
+        <v>320980105</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="M86" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A87" s="9">
+        <v>9047</v>
+      </c>
+      <c r="B87" s="9">
+        <v>320980105</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="M87" s="22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25" spans="1:13">
+      <c r="A88" s="9">
+        <v>10141</v>
+      </c>
+      <c r="B88" s="9">
+        <v>320744908</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="M88" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25" spans="1:13">
+      <c r="A89" s="9">
+        <v>10141</v>
+      </c>
+      <c r="B89" s="9">
+        <v>320744908</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="M89" s="22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25" spans="1:13">
+      <c r="A90" s="9">
+        <v>10141</v>
+      </c>
+      <c r="B90" s="9">
+        <v>320744908</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="M90" s="22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25" spans="1:13">
+      <c r="A91" s="9">
+        <v>10141</v>
+      </c>
+      <c r="B91" s="9">
+        <v>320744908</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="M91" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25" spans="1:13">
+      <c r="A92" s="9">
+        <v>10141</v>
+      </c>
+      <c r="B92" s="9">
+        <v>320744908</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="M92" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25" spans="1:13">
+      <c r="A93" s="9">
+        <v>10141</v>
+      </c>
+      <c r="B93" s="9">
+        <v>320744908</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="M93" s="22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A94" s="9">
+        <v>1286873</v>
+      </c>
+      <c r="B94" s="9">
+        <v>320381535</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="M94" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A95" s="9">
+        <v>1286873</v>
+      </c>
+      <c r="B95" s="9">
+        <v>320381535</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="M95" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A96" s="9">
+        <v>1286873</v>
+      </c>
+      <c r="B96" s="9">
+        <v>320381535</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="M96" s="22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A97" s="9">
+        <v>1286873</v>
+      </c>
+      <c r="B97" s="9">
+        <v>320381535</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D97" s="10"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="10"/>
+      <c r="M97" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25" spans="1:13">
+      <c r="A98" s="9">
+        <v>10029</v>
+      </c>
+      <c r="B98" s="9">
+        <v>320381545</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="M98" s="22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25" spans="1:13">
+      <c r="A99" s="9">
+        <v>10029</v>
+      </c>
+      <c r="B99" s="9">
+        <v>320381545</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="M99" s="22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25" spans="1:13">
+      <c r="A100" s="9">
+        <v>10029</v>
+      </c>
+      <c r="B100" s="9">
+        <v>320381545</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="M100" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25" spans="1:13">
+      <c r="A101" s="9">
+        <v>10227</v>
+      </c>
+      <c r="B101" s="9">
+        <v>320429313</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="M101" s="22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25" spans="1:13">
+      <c r="A102" s="9">
+        <v>10227</v>
+      </c>
+      <c r="B102" s="9">
+        <v>320429313</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="M102" s="22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25" spans="1:13">
+      <c r="A103" s="9">
+        <v>10227</v>
+      </c>
+      <c r="B103" s="9">
+        <v>320429313</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="M103" s="22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25" spans="1:13">
+      <c r="A104" s="9">
+        <v>10123</v>
+      </c>
+      <c r="B104" s="9">
+        <v>321027207</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="M104" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25" spans="1:13">
+      <c r="A105" s="9">
+        <v>10123</v>
+      </c>
+      <c r="B105" s="9">
+        <v>321027207</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="M105" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25" spans="1:13">
+      <c r="A106" s="9">
+        <v>10123</v>
+      </c>
+      <c r="B106" s="9">
+        <v>321027207</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="M106" s="22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25" spans="1:13">
+      <c r="A107" s="9">
+        <v>10146</v>
+      </c>
+      <c r="B107" s="9">
+        <v>321034239</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="M107" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25" spans="1:13">
+      <c r="A108" s="9">
+        <v>10146</v>
+      </c>
+      <c r="B108" s="9">
+        <v>321034239</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="M108" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="109" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A109" s="9">
+        <v>1286710</v>
+      </c>
+      <c r="B109" s="9">
+        <v>320999319</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="M109" s="22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="110" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A110" s="9">
+        <v>1286710</v>
+      </c>
+      <c r="B110" s="9">
+        <v>320999319</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="M110" s="22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="111" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A111" s="9">
+        <v>1286710</v>
+      </c>
+      <c r="B111" s="9">
+        <v>320999319</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="M111" s="22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25" spans="1:13">
+      <c r="A112" s="9">
+        <v>9045</v>
+      </c>
+      <c r="B112" s="9">
+        <v>320952228</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="M112" s="22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="113" ht="14.25" spans="1:13">
+      <c r="A113" s="9">
+        <v>9045</v>
+      </c>
+      <c r="B113" s="9">
+        <v>320952228</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="M113" s="22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="114" ht="14.25" spans="1:13">
+      <c r="A114" s="9">
+        <v>8527</v>
+      </c>
+      <c r="B114" s="9">
+        <v>320353688</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D114" s="10"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="10"/>
+      <c r="M114" s="22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25" spans="1:13">
+      <c r="A115" s="9">
+        <v>8527</v>
+      </c>
+      <c r="B115" s="9">
+        <v>320353688</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D115" s="10"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="10"/>
+      <c r="M115" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="116" ht="14.25" spans="1:13">
+      <c r="A116" s="9">
+        <v>9458</v>
+      </c>
+      <c r="B116" s="9">
+        <v>320760881</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="M116" s="22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="117" ht="14.25" spans="1:13">
+      <c r="A117" s="9">
+        <v>9458</v>
+      </c>
+      <c r="B117" s="9">
+        <v>320760881</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="M117" s="22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="118" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A118" s="9">
+        <v>1286793</v>
+      </c>
+      <c r="B118" s="9">
+        <v>320932263</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="M118" s="22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="119" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A119" s="9">
+        <v>1286793</v>
+      </c>
+      <c r="B119" s="9">
+        <v>320932263</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="M119" s="22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="120" ht="14.25" spans="1:13">
+      <c r="A120" s="9">
+        <v>9317</v>
+      </c>
+      <c r="B120" s="9">
+        <v>321022273</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="M120" s="22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25" spans="1:13">
+      <c r="A121" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="14.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="10"/>
-    </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="14.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="14.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="11"/>
+      <c r="B121" s="9">
+        <v>321010291</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="M121" s="22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="122" ht="14.25" spans="1:13">
+      <c r="A122" s="9">
+        <v>3</v>
+      </c>
+      <c r="B122" s="9">
+        <v>321010291</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="M122" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25" spans="1:13">
+      <c r="A123" s="9">
+        <v>3</v>
+      </c>
+      <c r="B123" s="9">
+        <v>321010291</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="M123" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="124" ht="14.25" spans="1:13">
+      <c r="A124" s="9">
+        <v>9363</v>
+      </c>
+      <c r="B124" s="9">
+        <v>320788815</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="M124" s="22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="125" ht="14.25" spans="1:13">
+      <c r="A125" s="9">
+        <v>9363</v>
+      </c>
+      <c r="B125" s="9">
+        <v>320788815</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="M125" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="126" ht="14.25" spans="1:13">
+      <c r="A126" s="9">
+        <v>9363</v>
+      </c>
+      <c r="B126" s="9">
+        <v>320788815</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="M126" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="127" ht="14.25" spans="1:13">
+      <c r="A127" s="9">
+        <v>9363</v>
+      </c>
+      <c r="B127" s="9">
+        <v>320788815</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="M127" s="22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="128" ht="14.25" spans="1:13">
+      <c r="A128" s="9">
+        <v>9363</v>
+      </c>
+      <c r="B128" s="9">
+        <v>320788815</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="M128" s="22" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="129" ht="14.25" spans="1:13">
+      <c r="A129" s="9">
+        <v>9363</v>
+      </c>
+      <c r="B129" s="9">
+        <v>320788815</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="M129" s="22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="130" ht="14.25" spans="1:13">
+      <c r="A130" s="9">
+        <v>9402</v>
+      </c>
+      <c r="B130" s="9">
+        <v>320886925</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="M130" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="131" ht="14.25" spans="1:13">
+      <c r="A131" s="9">
+        <v>9402</v>
+      </c>
+      <c r="B131" s="9">
+        <v>320886925</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="M131" s="22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="132" ht="14.25" spans="1:13">
+      <c r="A132" s="9">
+        <v>9402</v>
+      </c>
+      <c r="B132" s="9">
+        <v>320886925</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="M132" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="133" ht="14.25" spans="1:13">
+      <c r="A133" s="9">
+        <v>9402</v>
+      </c>
+      <c r="B133" s="9">
+        <v>320886925</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="M133" s="22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="134" ht="14.25" spans="1:13">
+      <c r="A134" s="9">
+        <v>9402</v>
+      </c>
+      <c r="B134" s="9">
+        <v>320886925</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="M134" s="22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="135" ht="14.25" spans="1:13">
+      <c r="A135" s="9">
+        <v>10229</v>
+      </c>
+      <c r="B135" s="9">
+        <v>320947541</v>
+      </c>
+      <c r="C135" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="M135" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="136" ht="14.25" spans="1:13">
+      <c r="A136" s="9">
+        <v>10229</v>
+      </c>
+      <c r="B136" s="9">
+        <v>320947541</v>
+      </c>
+      <c r="C136" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+      <c r="M136" s="22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="137" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A137" s="9">
+        <v>1286533</v>
+      </c>
+      <c r="B137" s="9">
+        <v>320954492</v>
+      </c>
+      <c r="C137" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+      <c r="M137" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="138" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A138" s="9">
+        <v>1286533</v>
+      </c>
+      <c r="B138" s="9">
+        <v>320954492</v>
+      </c>
+      <c r="C138" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="M138" s="22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="139" ht="14.25" spans="1:13">
+      <c r="A139" s="9">
+        <v>8533</v>
+      </c>
+      <c r="B139" s="9">
+        <v>320469136</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
+      <c r="M139" s="22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="140" ht="14.25" spans="1:13">
+      <c r="A140" s="9">
+        <v>8533</v>
+      </c>
+      <c r="B140" s="9">
+        <v>320469136</v>
+      </c>
+      <c r="C140" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="M140" s="22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="141" ht="14.25" spans="1:13">
+      <c r="A141" s="9">
+        <v>10139</v>
+      </c>
+      <c r="B141" s="9">
+        <v>321063059</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+      <c r="M141" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="142" ht="14.25" spans="1:13">
+      <c r="A142" s="9">
+        <v>9046</v>
+      </c>
+      <c r="B142" s="9">
+        <v>321006310</v>
+      </c>
+      <c r="C142" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="M142" s="22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="143" ht="14.25" spans="1:13">
+      <c r="A143" s="9">
+        <v>9046</v>
+      </c>
+      <c r="B143" s="9">
+        <v>321006310</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="M143" s="22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="144" ht="14.25" spans="1:13">
+      <c r="A144" s="9">
+        <v>9046</v>
+      </c>
+      <c r="B144" s="9">
+        <v>321006310</v>
+      </c>
+      <c r="C144" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+      <c r="M144" s="22" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="145" ht="14.25" spans="1:13">
+      <c r="A145" s="9">
+        <v>9540</v>
+      </c>
+      <c r="B145" s="9">
+        <v>320903912</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="M145" s="22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="146" ht="14.25" spans="1:13">
+      <c r="A146" s="9">
+        <v>9540</v>
+      </c>
+      <c r="B146" s="9">
+        <v>320903912</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
+      <c r="M146" s="22" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="147" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A147" s="9">
+        <v>1286872</v>
+      </c>
+      <c r="B147" s="9">
+        <v>320844710</v>
+      </c>
+      <c r="C147" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="D147" s="10"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="10"/>
+      <c r="M147" s="22" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="148" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A148" s="9">
+        <v>1286538</v>
+      </c>
+      <c r="B148" s="9">
+        <v>320936213</v>
+      </c>
+      <c r="C148" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
+      <c r="M148" s="22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="149" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A149" s="9">
+        <v>1286538</v>
+      </c>
+      <c r="B149" s="9">
+        <v>320936213</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
+      <c r="M149" s="22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="150" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A150" s="9">
+        <v>1286538</v>
+      </c>
+      <c r="B150" s="9">
+        <v>320936213</v>
+      </c>
+      <c r="C150" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="D150" s="10"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="16"/>
+      <c r="G150" s="10"/>
+      <c r="M150" s="22" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="151" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A151" s="9">
+        <v>10225</v>
+      </c>
+      <c r="B151" s="9">
+        <v>321043150</v>
+      </c>
+      <c r="C151" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="D151" s="16"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
+      <c r="M151" s="22" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="152" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A152" s="9">
+        <v>10225</v>
+      </c>
+      <c r="B152" s="9">
+        <v>321043150</v>
+      </c>
+      <c r="C152" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D152" s="16"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+      <c r="M152" s="22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="153" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A153" s="9">
+        <v>10225</v>
+      </c>
+      <c r="B153" s="9">
+        <v>321043150</v>
+      </c>
+      <c r="C153" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="D153" s="16"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+      <c r="M153" s="22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="154" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A154" s="9">
+        <v>6</v>
+      </c>
+      <c r="B154" s="9">
+        <v>320963438</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D154" s="16"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+      <c r="M154" s="22" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="155" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A155" s="9">
+        <v>6</v>
+      </c>
+      <c r="B155" s="9">
+        <v>320963438</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D155" s="16"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+      <c r="M155" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="156" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A156" s="9">
+        <v>6</v>
+      </c>
+      <c r="B156" s="9">
+        <v>320963438</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="D156" s="16"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="M156" s="22" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="157" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A157" s="9">
+        <v>6</v>
+      </c>
+      <c r="B157" s="9">
+        <v>320963438</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="D157" s="16"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
+      <c r="M157" s="22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="158" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A158" s="9">
+        <v>1286709</v>
+      </c>
+      <c r="B158" s="9">
+        <v>320964132</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="D158" s="16"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10"/>
+      <c r="M158" s="22" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="159" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A159" s="9">
+        <v>1286709</v>
+      </c>
+      <c r="B159" s="9">
+        <v>320964132</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D159" s="16"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
+      <c r="M159" s="22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="160" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A160" s="9">
+        <v>1286709</v>
+      </c>
+      <c r="B160" s="9">
+        <v>320964132</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="D160" s="16"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
+      <c r="M160" s="22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="161" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A161" s="9">
+        <v>10194</v>
+      </c>
+      <c r="B161" s="9">
+        <v>321007267</v>
+      </c>
+      <c r="C161" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D161" s="16"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
+      <c r="M161" s="22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="162" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A162" s="9">
+        <v>10194</v>
+      </c>
+      <c r="B162" s="9">
+        <v>321007267</v>
+      </c>
+      <c r="C162" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="D162" s="16"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10"/>
+      <c r="M162" s="22" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="163" ht="14.25" spans="1:13">
+      <c r="A163" s="9">
+        <v>8600</v>
+      </c>
+      <c r="B163" s="9">
+        <v>320469135</v>
+      </c>
+      <c r="C163" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="D163" s="16"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
+      <c r="M163" s="22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="164" ht="14.25" spans="1:13">
+      <c r="A164" s="9">
+        <v>8600</v>
+      </c>
+      <c r="B164" s="9">
+        <v>320469135</v>
+      </c>
+      <c r="C164" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D164" s="16"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
+      <c r="M164" s="22" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="165" ht="14.25" spans="1:13">
+      <c r="A165" s="9">
+        <v>8600</v>
+      </c>
+      <c r="B165" s="9">
+        <v>320469135</v>
+      </c>
+      <c r="C165" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="D165" s="16"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
+      <c r="M165" s="22" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="166" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A166" s="9">
+        <v>1286738</v>
+      </c>
+      <c r="B166" s="9">
+        <v>320936219</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+      <c r="M166" s="22" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="167" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A167" s="9">
+        <v>1286738</v>
+      </c>
+      <c r="B167" s="9">
+        <v>320936219</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10"/>
+      <c r="M167" s="22" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="168" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A168" s="9">
+        <v>1286869</v>
+      </c>
+      <c r="B168" s="9">
+        <v>320902908</v>
+      </c>
+      <c r="C168" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="D168" s="10"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="10"/>
+      <c r="M168" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="169" ht="14.25" spans="1:13">
+      <c r="A169" s="9">
+        <v>8599</v>
+      </c>
+      <c r="B169" s="9">
+        <v>320772905</v>
+      </c>
+      <c r="C169" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D169" s="16"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
+      <c r="M169" s="22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="170" ht="14.25" spans="1:13">
+      <c r="A170" s="9">
+        <v>8599</v>
+      </c>
+      <c r="B170" s="9">
+        <v>320772905</v>
+      </c>
+      <c r="C170" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="10"/>
+      <c r="M170" s="22" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="171" ht="14.25" spans="1:13">
+      <c r="A171" s="9">
+        <v>8599</v>
+      </c>
+      <c r="B171" s="9">
+        <v>320772905</v>
+      </c>
+      <c r="C171" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D171" s="10"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="10"/>
+      <c r="M171" s="22" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="172" ht="14.25" spans="1:13">
+      <c r="A172" s="9">
+        <v>10142</v>
+      </c>
+      <c r="B172" s="9">
+        <v>320341801</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D172" s="10"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
+      <c r="M172" s="22" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="173" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A173" s="9">
+        <v>1287084</v>
+      </c>
+      <c r="B173" s="9">
+        <v>321051104</v>
+      </c>
+      <c r="C173" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
+      <c r="M173" s="22" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="174" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A174" s="9">
+        <v>1287084</v>
+      </c>
+      <c r="B174" s="9">
+        <v>321051104</v>
+      </c>
+      <c r="C174" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
+      <c r="M174" s="22" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="175" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A175" s="9">
+        <v>1287084</v>
+      </c>
+      <c r="B175" s="9">
+        <v>321051104</v>
+      </c>
+      <c r="C175" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="10"/>
+      <c r="M175" s="22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="176" ht="14.25" spans="1:13">
+      <c r="A176" s="9">
+        <v>10215</v>
+      </c>
+      <c r="B176" s="9">
+        <v>320934604</v>
+      </c>
+      <c r="C176" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="10"/>
+      <c r="M176" s="22" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="177" ht="14.25" spans="1:13">
+      <c r="A177" s="9">
+        <v>10215</v>
+      </c>
+      <c r="B177" s="9">
+        <v>320934604</v>
+      </c>
+      <c r="C177" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="D177" s="10"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="10"/>
+      <c r="M177" s="22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="178" ht="14.25" spans="1:13">
+      <c r="A178" s="9">
+        <v>10215</v>
+      </c>
+      <c r="B178" s="9">
+        <v>320934604</v>
+      </c>
+      <c r="C178" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D178" s="16"/>
+      <c r="E178" s="10"/>
+      <c r="F178" s="10"/>
+      <c r="G178" s="10"/>
+      <c r="M178" s="22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="179" ht="14.25" spans="1:13">
+      <c r="A179" s="9">
+        <v>10047</v>
+      </c>
+      <c r="B179" s="9">
+        <v>320894885</v>
+      </c>
+      <c r="C179" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D179" s="16"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="10"/>
+      <c r="M179" s="22" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="180" ht="14.25" spans="1:13">
+      <c r="A180" s="9">
+        <v>10047</v>
+      </c>
+      <c r="B180" s="9">
+        <v>320894885</v>
+      </c>
+      <c r="C180" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="D180" s="16"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
+      <c r="M180" s="22" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="181" ht="14.25" spans="1:13">
+      <c r="A181" s="9">
+        <v>10047</v>
+      </c>
+      <c r="B181" s="9">
+        <v>320894885</v>
+      </c>
+      <c r="C181" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D181" s="16"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10"/>
+      <c r="M181" s="22" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="182" ht="14.25" spans="1:13">
+      <c r="A182" s="9">
+        <v>10168</v>
+      </c>
+      <c r="B182" s="9">
+        <v>320999323</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="D182" s="16"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10"/>
+      <c r="M182" s="22" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="183" ht="14.25" spans="1:13">
+      <c r="A183" s="9">
+        <v>10036</v>
+      </c>
+      <c r="B183" s="9">
+        <v>321012027</v>
+      </c>
+      <c r="C183" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D183" s="10"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="10"/>
+      <c r="G183" s="10"/>
+      <c r="M183" s="22" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="184" ht="14.25" spans="1:13">
+      <c r="A184" s="9">
+        <v>10036</v>
+      </c>
+      <c r="B184" s="9">
+        <v>321012027</v>
+      </c>
+      <c r="C184" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D184" s="10"/>
+      <c r="E184" s="10"/>
+      <c r="F184" s="10"/>
+      <c r="G184" s="10"/>
+      <c r="M184" s="22" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="185" ht="14.25" spans="1:13">
+      <c r="A185" s="9">
+        <v>10036</v>
+      </c>
+      <c r="B185" s="9">
+        <v>321012027</v>
+      </c>
+      <c r="C185" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D185" s="10"/>
+      <c r="E185" s="10"/>
+      <c r="F185" s="10"/>
+      <c r="G185" s="10"/>
+      <c r="M185" s="22" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="186" ht="14.25" spans="1:13">
+      <c r="A186" s="9">
+        <v>9324</v>
+      </c>
+      <c r="B186" s="9">
+        <v>321043151</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D186" s="10"/>
+      <c r="E186" s="10"/>
+      <c r="F186" s="10"/>
+      <c r="G186" s="10"/>
+      <c r="M186" s="22" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="187" ht="14.25" spans="1:13">
+      <c r="A187" s="9">
+        <v>10031</v>
+      </c>
+      <c r="B187" s="9">
+        <v>320493006</v>
+      </c>
+      <c r="C187" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D187" s="10"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="10"/>
+      <c r="G187" s="10"/>
+      <c r="M187" s="22" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="188" ht="14.25" spans="1:13">
+      <c r="A188" s="9">
+        <v>10031</v>
+      </c>
+      <c r="B188" s="9">
+        <v>320493006</v>
+      </c>
+      <c r="C188" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D188" s="10"/>
+      <c r="E188" s="10"/>
+      <c r="F188" s="10"/>
+      <c r="G188" s="10"/>
+      <c r="M188" s="22" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="189" ht="14.25" spans="1:13">
+      <c r="A189" s="9">
+        <v>10031</v>
+      </c>
+      <c r="B189" s="9">
+        <v>320493006</v>
+      </c>
+      <c r="C189" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D189" s="10"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="10"/>
+      <c r="G189" s="10"/>
+      <c r="M189" s="22" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="190" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A190" s="9">
+        <v>1286536</v>
+      </c>
+      <c r="B190" s="9">
+        <v>320910876</v>
+      </c>
+      <c r="C190" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="D190" s="10"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="10"/>
+      <c r="M190" s="22" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="191" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A191" s="9">
+        <v>1286536</v>
+      </c>
+      <c r="B191" s="9">
+        <v>320910876</v>
+      </c>
+      <c r="C191" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="D191" s="10"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="10"/>
+      <c r="M191" s="22" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="192" ht="14.25" spans="1:13">
+      <c r="A192" s="9">
+        <v>10190</v>
+      </c>
+      <c r="B192" s="9">
+        <v>321051101</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D192" s="16"/>
+      <c r="E192" s="10"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="10"/>
+      <c r="M192" s="22" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="193" ht="14.25" spans="1:13">
+      <c r="A193" s="9">
+        <v>8520</v>
+      </c>
+      <c r="B193" s="9">
+        <v>321000068</v>
+      </c>
+      <c r="C193" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="D193" s="16"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="10"/>
+      <c r="M193" s="22" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="194" ht="14.25" spans="1:13">
+      <c r="A194" s="9">
+        <v>8520</v>
+      </c>
+      <c r="B194" s="9">
+        <v>321000068</v>
+      </c>
+      <c r="C194" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="D194" s="16"/>
+      <c r="E194" s="10"/>
+      <c r="F194" s="10"/>
+      <c r="G194" s="10"/>
+      <c r="M194" s="22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="195" ht="14.25" spans="1:13">
+      <c r="A195" s="9">
+        <v>8520</v>
+      </c>
+      <c r="B195" s="9">
+        <v>321000068</v>
+      </c>
+      <c r="C195" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="D195" s="16"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="10"/>
+      <c r="G195" s="10"/>
+      <c r="M195" s="22" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="196" ht="14.25" spans="1:13">
+      <c r="A196" s="9">
+        <v>10135</v>
+      </c>
+      <c r="B196" s="9">
+        <v>320960161</v>
+      </c>
+      <c r="C196" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="D196" s="10"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="10"/>
+      <c r="M196" s="22" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="197" ht="14.25" spans="1:13">
+      <c r="A197" s="9">
+        <v>10135</v>
+      </c>
+      <c r="B197" s="9">
+        <v>320960161</v>
+      </c>
+      <c r="C197" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D197" s="10"/>
+      <c r="E197" s="10"/>
+      <c r="F197" s="10"/>
+      <c r="G197" s="10"/>
+      <c r="M197" s="22" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="198" ht="14.25" spans="1:13">
+      <c r="A198" s="9">
+        <v>10189</v>
+      </c>
+      <c r="B198" s="9">
+        <v>321063057</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D198" s="10"/>
+      <c r="E198" s="10"/>
+      <c r="F198" s="10"/>
+      <c r="G198" s="10"/>
+      <c r="M198" s="22" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="199" ht="14.25" spans="1:13">
+      <c r="A199" s="9">
+        <v>10143</v>
+      </c>
+      <c r="B199" s="9">
+        <v>320489037</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D199" s="10"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="10"/>
+      <c r="G199" s="10"/>
+      <c r="M199" s="22" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="200" ht="14.25" spans="1:13">
+      <c r="A200" s="9">
+        <v>10046</v>
+      </c>
+      <c r="B200" s="9">
+        <v>320904336</v>
+      </c>
+      <c r="C200" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D200" s="10"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="10"/>
+      <c r="G200" s="10"/>
+      <c r="M200" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="201" ht="14.25" spans="1:13">
+      <c r="A201" s="9">
+        <v>10046</v>
+      </c>
+      <c r="B201" s="9">
+        <v>320904336</v>
+      </c>
+      <c r="C201" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="D201" s="10"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="10"/>
+      <c r="G201" s="10"/>
+      <c r="M201" s="22" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="202" ht="15" customHeight="1" spans="1:13">
+      <c r="A202" s="9">
+        <v>10046</v>
+      </c>
+      <c r="B202" s="9">
+        <v>320904336</v>
+      </c>
+      <c r="C202" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D202" s="10"/>
+      <c r="E202" s="10"/>
+      <c r="F202" s="10"/>
+      <c r="G202" s="10"/>
+      <c r="M202" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="203" ht="15" customHeight="1" spans="1:13">
+      <c r="A203" s="9">
+        <v>9365</v>
+      </c>
+      <c r="B203" s="9">
+        <v>320914774</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="D203" s="10"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="10"/>
+      <c r="G203" s="10"/>
+      <c r="M203" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="204" ht="14.25" spans="1:13">
+      <c r="A204" s="9">
+        <v>10212</v>
+      </c>
+      <c r="B204" s="9">
+        <v>320868502</v>
+      </c>
+      <c r="C204" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D204" s="10"/>
+      <c r="E204" s="10"/>
+      <c r="F204" s="10"/>
+      <c r="G204" s="10"/>
+      <c r="M204" s="22" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="205" ht="14.25" spans="1:13">
+      <c r="A205" s="9">
+        <v>10212</v>
+      </c>
+      <c r="B205" s="9">
+        <v>320868502</v>
+      </c>
+      <c r="C205" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D205" s="10"/>
+      <c r="E205" s="10"/>
+      <c r="F205" s="10"/>
+      <c r="G205" s="10"/>
+      <c r="M205" s="22" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="206" ht="14.25" spans="1:13">
+      <c r="A206" s="9">
+        <v>10212</v>
+      </c>
+      <c r="B206" s="9">
+        <v>320868502</v>
+      </c>
+      <c r="C206" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D206" s="10"/>
+      <c r="E206" s="10"/>
+      <c r="F206" s="10"/>
+      <c r="G206" s="10"/>
+      <c r="M206" s="22" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="207" ht="14.25" spans="1:13">
+      <c r="A207" s="9">
+        <v>10140</v>
+      </c>
+      <c r="B207" s="9">
+        <v>320317948</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D207" s="10"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="10"/>
+      <c r="G207" s="10"/>
+      <c r="M207" s="22" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="208" ht="14.25" spans="1:13">
+      <c r="A208" s="9">
+        <v>9336</v>
+      </c>
+      <c r="B208" s="9">
+        <v>320469146</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="D208" s="10"/>
+      <c r="E208" s="10"/>
+      <c r="F208" s="10"/>
+      <c r="G208" s="10"/>
+      <c r="M208" s="22" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="209" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A209" s="9">
+        <v>1287085</v>
+      </c>
+      <c r="B209" s="9">
+        <v>321063066</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="D209" s="10"/>
+      <c r="E209" s="10"/>
+      <c r="F209" s="10"/>
+      <c r="G209" s="10"/>
+      <c r="M209" s="22" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="210" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A210" s="9">
+        <v>1287085</v>
+      </c>
+      <c r="B210" s="9">
+        <v>321063066</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="D210" s="10"/>
+      <c r="E210" s="10"/>
+      <c r="F210" s="10"/>
+      <c r="G210" s="10"/>
+      <c r="M210" s="22" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="211" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A211" s="9">
+        <v>1287085</v>
+      </c>
+      <c r="B211" s="9">
+        <v>321063066</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="D211" s="10"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="10"/>
+      <c r="G211" s="10"/>
+      <c r="M211" s="22" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="212" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A212" s="9">
+        <v>1287085</v>
+      </c>
+      <c r="B212" s="9">
+        <v>321063066</v>
+      </c>
+      <c r="C212" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="D212" s="10"/>
+      <c r="E212" s="10"/>
+      <c r="F212" s="10"/>
+      <c r="G212" s="10"/>
+      <c r="M212" s="22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="213" ht="14.25" spans="1:13">
+      <c r="A213" s="9">
+        <v>10205</v>
+      </c>
+      <c r="B213" s="9">
+        <v>320879939</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="D213" s="10"/>
+      <c r="E213" s="10"/>
+      <c r="F213" s="10"/>
+      <c r="G213" s="10"/>
+      <c r="M213" s="22" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="214" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A214" s="9">
+        <v>3361126</v>
+      </c>
+      <c r="B214" s="9">
+        <v>320911839</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5"/>
+      <c r="M214" s="24" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="215" ht="14.25" spans="1:13">
+      <c r="A215" s="9">
+        <v>3361126</v>
+      </c>
+      <c r="B215" s="9">
+        <v>320911839</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="M215" s="24" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="216" ht="14.25" spans="1:13">
+      <c r="A216" s="9">
+        <v>3361126</v>
+      </c>
+      <c r="B216" s="9">
+        <v>320911839</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="M216" s="24" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="217" ht="14.25" spans="1:13">
+      <c r="A217" s="9">
+        <v>3361126</v>
+      </c>
+      <c r="B217" s="9">
+        <v>320911839</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="M217" s="24" t="s">
+        <v>394</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C5">
+  <autoFilter ref="A1:C217">
     <extLst/>
   </autoFilter>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -578,13 +6288,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -593,8 +6304,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>